--- a/Data/swaption margin hedge same T.xlsx
+++ b/Data/swaption margin hedge same T.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ING Case\Seminar-QF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B10615-4D4C-4FAF-820B-065CE8DF82D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge with swaption" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>Positions</t>
+    <t>swaption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,14 +60,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -123,7 +106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,27 +138,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,24 +172,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,179 +347,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:2">
       <c r="B3">
-        <v>7.00213623046875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4">
-        <v>8.0020751953125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10</v>
-      </c>
+        <v>74064.6301175681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5">
-        <v>37730.91712496079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>13</v>
-      </c>
+        <v>63296.26102429396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6">
-        <v>75479.889600066963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>16</v>
-      </c>
+        <v>203490.7193770627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7">
-        <v>75479.889600066963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>19</v>
-      </c>
+        <v>203563.1552447635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8">
-        <v>37748.972353035861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>22</v>
-      </c>
+        <v>-4381.563573863687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>25</v>
-      </c>
+    <row r="10" spans="1:2">
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>28</v>
-      </c>
+    <row r="11" spans="1:2">
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>31</v>
-      </c>
+    <row r="12" spans="1:2">
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:2">
       <c r="B13">
-        <v>7.00213623046875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>37</v>
-      </c>
+        <v>74064.63011756809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>40</v>
-      </c>
+    <row r="15" spans="1:2">
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>43</v>
-      </c>
+    <row r="16" spans="1:2">
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>46</v>
-      </c>
+    <row r="17" spans="2:2">
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>49</v>
-      </c>
+    <row r="18" spans="2:2">
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>52</v>
-      </c>
+    <row r="19" spans="2:2">
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>55</v>
-      </c>
+    <row r="20" spans="2:2">
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>58</v>
-      </c>
+    <row r="21" spans="2:2">
       <c r="B21">
         <v>0</v>
       </c>
